--- a/static/input_files/acfrs/Clayton_acfr_simple.xlsx
+++ b/static/input_files/acfrs/Clayton_acfr_simple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/input_files/acfrs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EB49FD-9C83-D946-81C6-7FFE86DEAD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7388784-09A8-FC4D-B51F-FADB2571CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement of Net Position" sheetId="1" r:id="rId1"/>
@@ -2215,7 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
@@ -4745,7 +4745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
